--- a/UnitTest.xlsx
+++ b/UnitTest.xlsx
@@ -24,13 +24,13 @@
     <t>Click on a Card</t>
   </si>
   <si>
-    <t>Detail Container change color and number to 1 if it is new card, chage number if it is old card</t>
-  </si>
-  <si>
     <t>Click on Detail Container</t>
   </si>
   <si>
-    <t>Corresponding Card increment number accordingly.</t>
+    <t>Render the color and the number to the detail Container</t>
+  </si>
+  <si>
+    <t>Increment number of Corresponding Card and Detail Container.</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
   <dimension ref="B5:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -365,12 +365,12 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
